--- a/biology/Botanique/Rutilariaceae/Rutilariaceae.xlsx
+++ b/biology/Botanique/Rutilariaceae/Rutilariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rutilariaceae  sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Cymatosirales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Rutilaria, composé du préfixe ruti-, ride, et du suffixe -ari, « beaucoup, fortement ».
 </t>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Greville décrit le genre type Rutilaria ainsi :
 « Frustules libres, allongés, comprimés, avec un nodule central convoluté ou noduleux (pas de ligne médiane ni de nodule terminal), et une minuscule structure radiée ou décussato-poncée (formé de structures entrecroisées rases). Valve (linéaire ou carénée) avec une rangée longitudinale de points lacrymaux.
-C'est un genre fossile des plus remarquables, et sa position systématique est extrêmement déconcertante[1]. »
+C'est un genre fossile des plus remarquables, et sa position systématique est extrêmement déconcertante. »
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Rutilaria est un genre fossile découvert dans des dépôts sédimentaires de Monterey (Californie) et de la Barbade (Caraïbes) [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Rutilaria est un genre fossile découvert dans des dépôts sédimentaires de Monterey (Californie) et de la Barbade (Caraïbes) .
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (7 août 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (7 août 2022) :
 Kisseleviella Sheshukova-Poretzkaya, 1962
 Rutilaria Greville, 1863
 Spinivinculum R.Ross, 1990
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rutilariaceae De Toni, 1894[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rutilariaceae De Toni, 1894.
 </t>
         </is>
       </c>
